--- a/BTL_JV-main/San_Pham.xlsx
+++ b/BTL_JV-main/San_Pham.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -29,58 +29,61 @@
     <t>Số lượng còn</t>
   </si>
   <si>
+    <t>SP04</t>
+  </si>
+  <si>
+    <t>Áo khoác đồng phục</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>17000.0</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>SP03</t>
+  </si>
+  <si>
+    <t>Đồng phục thực hành</t>
+  </si>
+  <si>
+    <t>18000.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>sp03</t>
+  </si>
+  <si>
+    <t>SP05</t>
+  </si>
+  <si>
+    <t>Quần áo thể dục</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>140000.0</t>
+  </si>
+  <si>
     <t>SP02</t>
   </si>
   <si>
-    <t>Áo khoác đồng phục</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>170000.0</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>SP03</t>
-  </si>
-  <si>
-    <t>Đồng phục thực hành</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>18000.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>SP04</t>
-  </si>
-  <si>
-    <t>17000.0</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>SP05</t>
-  </si>
-  <si>
-    <t>Quần áo thể dục</t>
-  </si>
-  <si>
-    <t>140000.0</t>
-  </si>
-  <si>
-    <t>SP06</t>
-  </si>
-  <si>
-    <t>73</t>
+    <t>SP01</t>
+  </si>
+  <si>
+    <t>3XL</t>
   </si>
 </sst>
 </file>
@@ -203,64 +206,81 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
